--- a/natmiOut/OldD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Postn-Ptk7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.628489322651</v>
+        <v>26.3832095</v>
       </c>
       <c r="H2">
-        <v>25.628489322651</v>
+        <v>52.766419</v>
       </c>
       <c r="I2">
-        <v>0.07760852931783727</v>
+        <v>0.07374322981215732</v>
       </c>
       <c r="J2">
-        <v>0.07760852931783727</v>
+        <v>0.05571773952237315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.38612474234192</v>
+        <v>4.485465</v>
       </c>
       <c r="N2">
-        <v>4.38612474234192</v>
+        <v>8.970929999999999</v>
       </c>
       <c r="O2">
-        <v>0.3208348229435143</v>
+        <v>0.2898195711827911</v>
       </c>
       <c r="P2">
-        <v>0.3208348229435143</v>
+        <v>0.2580417701291554</v>
       </c>
       <c r="Q2">
-        <v>112.4097511269253</v>
+        <v>118.3409627999175</v>
       </c>
       <c r="R2">
-        <v>112.4097511269253</v>
+        <v>473.36385119967</v>
       </c>
       <c r="S2">
-        <v>0.02489951876259486</v>
+        <v>0.02137223124179345</v>
       </c>
       <c r="T2">
-        <v>0.02489951876259486</v>
+        <v>0.01437750413394837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.628489322651</v>
+        <v>26.3832095</v>
       </c>
       <c r="H3">
-        <v>25.628489322651</v>
+        <v>52.766419</v>
       </c>
       <c r="I3">
-        <v>0.07760852931783727</v>
+        <v>0.07374322981215732</v>
       </c>
       <c r="J3">
-        <v>0.07760852931783727</v>
+        <v>0.05571773952237315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.79198395723167</v>
+        <v>2.069856666666667</v>
       </c>
       <c r="N3">
-        <v>1.79198395723167</v>
+        <v>6.20957</v>
       </c>
       <c r="O3">
-        <v>0.1310794583851857</v>
+        <v>0.133739750849282</v>
       </c>
       <c r="P3">
-        <v>0.1310794583851857</v>
+        <v>0.1786134140541615</v>
       </c>
       <c r="Q3">
-        <v>45.92584171427374</v>
+        <v>54.60946207163834</v>
       </c>
       <c r="R3">
-        <v>45.92584171427374</v>
+        <v>327.65677242983</v>
       </c>
       <c r="S3">
-        <v>0.01017288398905291</v>
+        <v>0.009862401181899266</v>
       </c>
       <c r="T3">
-        <v>0.01017288398905291</v>
+        <v>0.009951935679471557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.628489322651</v>
+        <v>26.3832095</v>
       </c>
       <c r="H4">
-        <v>25.628489322651</v>
+        <v>52.766419</v>
       </c>
       <c r="I4">
-        <v>0.07760852931783727</v>
+        <v>0.07374322981215732</v>
       </c>
       <c r="J4">
-        <v>0.07760852931783727</v>
+        <v>0.05571773952237315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.67541086057667</v>
+        <v>1.742061666666666</v>
       </c>
       <c r="N4">
-        <v>1.67541086057667</v>
+        <v>5.226184999999999</v>
       </c>
       <c r="O4">
-        <v>0.1225524075094474</v>
+        <v>0.1125599163536694</v>
       </c>
       <c r="P4">
-        <v>0.1225524075094474</v>
+        <v>0.1503271152960105</v>
       </c>
       <c r="Q4">
-        <v>42.93824935134271</v>
+        <v>45.96117791358583</v>
       </c>
       <c r="R4">
-        <v>42.93824935134271</v>
+        <v>275.767067481515</v>
       </c>
       <c r="S4">
-        <v>0.009511112111168486</v>
+        <v>0.008300531779305847</v>
       </c>
       <c r="T4">
-        <v>0.009511112111168486</v>
+        <v>0.008375887053212872</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>25.628489322651</v>
+        <v>26.3832095</v>
       </c>
       <c r="H5">
-        <v>25.628489322651</v>
+        <v>52.766419</v>
       </c>
       <c r="I5">
-        <v>0.07760852931783727</v>
+        <v>0.07374322981215732</v>
       </c>
       <c r="J5">
-        <v>0.07760852931783727</v>
+        <v>0.05571773952237315</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.81745512427212</v>
+        <v>7.1793665</v>
       </c>
       <c r="N5">
-        <v>5.81745512427212</v>
+        <v>14.358733</v>
       </c>
       <c r="O5">
-        <v>0.4255333111618528</v>
+        <v>0.4638807616142575</v>
       </c>
       <c r="P5">
-        <v>0.4255333111618528</v>
+        <v>0.4130177005206726</v>
       </c>
       <c r="Q5">
-        <v>149.0925865374094</v>
+        <v>189.4147304467817</v>
       </c>
       <c r="R5">
-        <v>149.0925865374094</v>
+        <v>757.6589217871269</v>
       </c>
       <c r="S5">
-        <v>0.03302501445502102</v>
+        <v>0.03420806560915876</v>
       </c>
       <c r="T5">
-        <v>0.03302501445502102</v>
+        <v>0.02301241265574036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>187.396669044937</v>
+        <v>209.811259</v>
       </c>
       <c r="H6">
-        <v>187.396669044937</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I6">
-        <v>0.5674770643147162</v>
+        <v>0.5864396403180236</v>
       </c>
       <c r="J6">
-        <v>0.5674770643147162</v>
+        <v>0.6646391378855843</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.38612474234192</v>
+        <v>4.485465</v>
       </c>
       <c r="N6">
-        <v>4.38612474234192</v>
+        <v>8.970929999999999</v>
       </c>
       <c r="O6">
-        <v>0.3208348229435143</v>
+        <v>0.2898195711827911</v>
       </c>
       <c r="P6">
-        <v>0.3208348229435143</v>
+        <v>0.2580417701291554</v>
       </c>
       <c r="Q6">
-        <v>821.9451667304584</v>
+        <v>941.101058850435</v>
       </c>
       <c r="R6">
-        <v>821.9451667304584</v>
+        <v>5646.60635310261</v>
       </c>
       <c r="S6">
-        <v>0.1820664034539173</v>
+        <v>0.1699616850815598</v>
       </c>
       <c r="T6">
-        <v>0.1820664034539173</v>
+        <v>0.1715046596371119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>187.396669044937</v>
+        <v>209.811259</v>
       </c>
       <c r="H7">
-        <v>187.396669044937</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I7">
-        <v>0.5674770643147162</v>
+        <v>0.5864396403180236</v>
       </c>
       <c r="J7">
-        <v>0.5674770643147162</v>
+        <v>0.6646391378855843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.79198395723167</v>
+        <v>2.069856666666667</v>
       </c>
       <c r="N7">
-        <v>1.79198395723167</v>
+        <v>6.20957</v>
       </c>
       <c r="O7">
-        <v>0.1310794583851857</v>
+        <v>0.133739750849282</v>
       </c>
       <c r="P7">
-        <v>0.1310794583851857</v>
+        <v>0.1786134140541615</v>
       </c>
       <c r="Q7">
-        <v>335.8118245671798</v>
+        <v>434.2792331828768</v>
       </c>
       <c r="R7">
-        <v>335.8118245671798</v>
+        <v>3908.513098645891</v>
       </c>
       <c r="S7">
-        <v>0.07438458623638818</v>
+        <v>0.07843029138427504</v>
       </c>
       <c r="T7">
-        <v>0.07438458623638818</v>
+        <v>0.1187134655317588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>187.396669044937</v>
+        <v>209.811259</v>
       </c>
       <c r="H8">
-        <v>187.396669044937</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I8">
-        <v>0.5674770643147162</v>
+        <v>0.5864396403180236</v>
       </c>
       <c r="J8">
-        <v>0.5674770643147162</v>
+        <v>0.6646391378855843</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.67541086057667</v>
+        <v>1.742061666666666</v>
       </c>
       <c r="N8">
-        <v>1.67541086057667</v>
+        <v>5.226184999999999</v>
       </c>
       <c r="O8">
-        <v>0.1225524075094474</v>
+        <v>0.1125599163536694</v>
       </c>
       <c r="P8">
-        <v>0.1225524075094474</v>
+        <v>0.1503271152960105</v>
       </c>
       <c r="Q8">
-        <v>313.9664145537793</v>
+        <v>365.5041515389717</v>
       </c>
       <c r="R8">
-        <v>313.9664145537793</v>
+        <v>3289.537363850745</v>
       </c>
       <c r="S8">
-        <v>0.06954568043816198</v>
+        <v>0.0660095968606727</v>
       </c>
       <c r="T8">
-        <v>0.06954568043816198</v>
+        <v>0.09991328431116726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>187.396669044937</v>
+        <v>209.811259</v>
       </c>
       <c r="H9">
-        <v>187.396669044937</v>
+        <v>629.4337770000001</v>
       </c>
       <c r="I9">
-        <v>0.5674770643147162</v>
+        <v>0.5864396403180236</v>
       </c>
       <c r="J9">
-        <v>0.5674770643147162</v>
+        <v>0.6646391378855843</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.81745512427212</v>
+        <v>7.1793665</v>
       </c>
       <c r="N9">
-        <v>5.81745512427212</v>
+        <v>14.358733</v>
       </c>
       <c r="O9">
-        <v>0.4255333111618528</v>
+        <v>0.4638807616142575</v>
       </c>
       <c r="P9">
-        <v>0.4255333111618528</v>
+        <v>0.4130177005206726</v>
       </c>
       <c r="Q9">
-        <v>1090.171712606995</v>
+        <v>1506.311924187424</v>
       </c>
       <c r="R9">
-        <v>1090.171712606995</v>
+        <v>9037.871545124541</v>
       </c>
       <c r="S9">
-        <v>0.2414803941862489</v>
+        <v>0.2720380669915161</v>
       </c>
       <c r="T9">
-        <v>0.2414803941862489</v>
+        <v>0.2745077284055463</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.297702194484173</v>
+        <v>1.231693666666667</v>
       </c>
       <c r="H10">
-        <v>0.297702194484173</v>
+        <v>3.695081</v>
       </c>
       <c r="I10">
-        <v>0.0009015057109975431</v>
+        <v>0.003442684602841012</v>
       </c>
       <c r="J10">
-        <v>0.0009015057109975431</v>
+        <v>0.003901753512438851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.38612474234192</v>
+        <v>4.485465</v>
       </c>
       <c r="N10">
-        <v>4.38612474234192</v>
+        <v>8.970929999999999</v>
       </c>
       <c r="O10">
-        <v>0.3208348229435143</v>
+        <v>0.2898195711827911</v>
       </c>
       <c r="P10">
-        <v>0.3208348229435143</v>
+        <v>0.2580417701291554</v>
       </c>
       <c r="Q10">
-        <v>1.305758961076517</v>
+        <v>5.524718832554999</v>
       </c>
       <c r="R10">
-        <v>1.305758961076517</v>
+        <v>33.14831299533</v>
       </c>
       <c r="S10">
-        <v>0.0002892344251704637</v>
+        <v>0.0009977573753129794</v>
       </c>
       <c r="T10">
-        <v>0.0002892344251704637</v>
+        <v>0.001006815382957371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.297702194484173</v>
+        <v>1.231693666666667</v>
       </c>
       <c r="H11">
-        <v>0.297702194484173</v>
+        <v>3.695081</v>
       </c>
       <c r="I11">
-        <v>0.0009015057109975431</v>
+        <v>0.003442684602841012</v>
       </c>
       <c r="J11">
-        <v>0.0009015057109975431</v>
+        <v>0.003901753512438851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.79198395723167</v>
+        <v>2.069856666666667</v>
       </c>
       <c r="N11">
-        <v>1.79198395723167</v>
+        <v>6.20957</v>
       </c>
       <c r="O11">
-        <v>0.1310794583851857</v>
+        <v>0.133739750849282</v>
       </c>
       <c r="P11">
-        <v>0.1310794583851857</v>
+        <v>0.1786134140541615</v>
       </c>
       <c r="Q11">
-        <v>0.5334775565483006</v>
+        <v>2.549429347241111</v>
       </c>
       <c r="R11">
-        <v>0.5334775565483006</v>
+        <v>22.94486412517</v>
       </c>
       <c r="S11">
-        <v>0.0001181688803287097</v>
+        <v>0.0004604237810366163</v>
       </c>
       <c r="T11">
-        <v>0.0001181688803287097</v>
+        <v>0.0006969055156545196</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.297702194484173</v>
+        <v>1.231693666666667</v>
       </c>
       <c r="H12">
-        <v>0.297702194484173</v>
+        <v>3.695081</v>
       </c>
       <c r="I12">
-        <v>0.0009015057109975431</v>
+        <v>0.003442684602841012</v>
       </c>
       <c r="J12">
-        <v>0.0009015057109975431</v>
+        <v>0.003901753512438851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.67541086057667</v>
+        <v>1.742061666666666</v>
       </c>
       <c r="N12">
-        <v>1.67541086057667</v>
+        <v>5.226184999999999</v>
       </c>
       <c r="O12">
-        <v>0.1225524075094474</v>
+        <v>0.1125599163536694</v>
       </c>
       <c r="P12">
-        <v>0.1225524075094474</v>
+        <v>0.1503271152960105</v>
       </c>
       <c r="Q12">
-        <v>0.4987734898562915</v>
+        <v>2.145686321776111</v>
       </c>
       <c r="R12">
-        <v>0.4987734898562915</v>
+        <v>19.311176895985</v>
       </c>
       <c r="S12">
-        <v>0.000110481695266265</v>
+        <v>0.0003875082909278497</v>
       </c>
       <c r="T12">
-        <v>0.000110481695266265</v>
+        <v>0.0005865393501210092</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.297702194484173</v>
+        <v>1.231693666666667</v>
       </c>
       <c r="H13">
-        <v>0.297702194484173</v>
+        <v>3.695081</v>
       </c>
       <c r="I13">
-        <v>0.0009015057109975431</v>
+        <v>0.003442684602841012</v>
       </c>
       <c r="J13">
-        <v>0.0009015057109975431</v>
+        <v>0.003901753512438851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.81745512427212</v>
+        <v>7.1793665</v>
       </c>
       <c r="N13">
-        <v>5.81745512427212</v>
+        <v>14.358733</v>
       </c>
       <c r="O13">
-        <v>0.4255333111618528</v>
+        <v>0.4638807616142575</v>
       </c>
       <c r="P13">
-        <v>0.4255333111618528</v>
+        <v>0.4130177005206726</v>
       </c>
       <c r="Q13">
-        <v>1.731869156809008</v>
+        <v>8.842780248728833</v>
       </c>
       <c r="R13">
-        <v>1.731869156809008</v>
+        <v>53.056681492373</v>
       </c>
       <c r="S13">
-        <v>0.0003836207102321048</v>
+        <v>0.001596995155563566</v>
       </c>
       <c r="T13">
-        <v>0.0003836207102321048</v>
+        <v>0.001611493263705952</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.0459249444342</v>
+        <v>1.251595</v>
       </c>
       <c r="H14">
-        <v>1.0459249444342</v>
+        <v>3.754785</v>
       </c>
       <c r="I14">
-        <v>0.003167283708862105</v>
+        <v>0.003498310458276391</v>
       </c>
       <c r="J14">
-        <v>0.003167283708862105</v>
+        <v>0.003964796864318458</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.38612474234192</v>
+        <v>4.485465</v>
       </c>
       <c r="N14">
-        <v>4.38612474234192</v>
+        <v>8.970929999999999</v>
       </c>
       <c r="O14">
-        <v>0.3208348229435143</v>
+        <v>0.2898195711827911</v>
       </c>
       <c r="P14">
-        <v>0.3208348229435143</v>
+        <v>0.2580417701291554</v>
       </c>
       <c r="Q14">
-        <v>4.587557277415443</v>
+        <v>5.613985566675</v>
       </c>
       <c r="R14">
-        <v>4.587557277415443</v>
+        <v>33.68391340005</v>
       </c>
       <c r="S14">
-        <v>0.001016174907944651</v>
+        <v>0.001013878836881937</v>
       </c>
       <c r="T14">
-        <v>0.001016174907944651</v>
+        <v>0.001023083201071259</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.0459249444342</v>
+        <v>1.251595</v>
       </c>
       <c r="H15">
-        <v>1.0459249444342</v>
+        <v>3.754785</v>
       </c>
       <c r="I15">
-        <v>0.003167283708862105</v>
+        <v>0.003498310458276391</v>
       </c>
       <c r="J15">
-        <v>0.003167283708862105</v>
+        <v>0.003964796864318458</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.79198395723167</v>
+        <v>2.069856666666667</v>
       </c>
       <c r="N15">
-        <v>1.79198395723167</v>
+        <v>6.20957</v>
       </c>
       <c r="O15">
-        <v>0.1310794583851857</v>
+        <v>0.133739750849282</v>
       </c>
       <c r="P15">
-        <v>0.1310794583851857</v>
+        <v>0.1786134140541615</v>
       </c>
       <c r="Q15">
-        <v>1.874280720894512</v>
+        <v>2.590622254716667</v>
       </c>
       <c r="R15">
-        <v>1.874280720894512</v>
+        <v>23.31560029245</v>
       </c>
       <c r="S15">
-        <v>0.0004151658331098668</v>
+        <v>0.0004678631690833222</v>
       </c>
       <c r="T15">
-        <v>0.0004151658331098668</v>
+        <v>0.0007081659039671539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.0459249444342</v>
+        <v>1.251595</v>
       </c>
       <c r="H16">
-        <v>1.0459249444342</v>
+        <v>3.754785</v>
       </c>
       <c r="I16">
-        <v>0.003167283708862105</v>
+        <v>0.003498310458276391</v>
       </c>
       <c r="J16">
-        <v>0.003167283708862105</v>
+        <v>0.003964796864318458</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.67541086057667</v>
+        <v>1.742061666666666</v>
       </c>
       <c r="N16">
-        <v>1.67541086057667</v>
+        <v>5.226184999999999</v>
       </c>
       <c r="O16">
-        <v>0.1225524075094474</v>
+        <v>0.1125599163536694</v>
       </c>
       <c r="P16">
-        <v>0.1225524075094474</v>
+        <v>0.1503271152960105</v>
       </c>
       <c r="Q16">
-        <v>1.752354011253109</v>
+        <v>2.180355671691666</v>
       </c>
       <c r="R16">
-        <v>1.752354011253109</v>
+        <v>19.623201045225</v>
       </c>
       <c r="S16">
-        <v>0.0003881582437865025</v>
+        <v>0.0003937695325627574</v>
       </c>
       <c r="T16">
-        <v>0.0003881582437865025</v>
+        <v>0.0005960164753476618</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>25</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0459249444342</v>
+        <v>1.251595</v>
       </c>
       <c r="H17">
-        <v>1.0459249444342</v>
+        <v>3.754785</v>
       </c>
       <c r="I17">
-        <v>0.003167283708862105</v>
+        <v>0.003498310458276391</v>
       </c>
       <c r="J17">
-        <v>0.003167283708862105</v>
+        <v>0.003964796864318458</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.81745512427212</v>
+        <v>7.1793665</v>
       </c>
       <c r="N17">
-        <v>5.81745512427212</v>
+        <v>14.358733</v>
       </c>
       <c r="O17">
-        <v>0.4255333111618528</v>
+        <v>0.4638807616142575</v>
       </c>
       <c r="P17">
-        <v>0.4255333111618528</v>
+        <v>0.4130177005206726</v>
       </c>
       <c r="Q17">
-        <v>6.084621427602769</v>
+        <v>8.9856592145675</v>
       </c>
       <c r="R17">
-        <v>6.084621427602769</v>
+        <v>53.913955287405</v>
       </c>
       <c r="S17">
-        <v>0.001347784724021085</v>
+        <v>0.001622798919748375</v>
       </c>
       <c r="T17">
-        <v>0.001347784724021085</v>
+        <v>0.001637531283932383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.5520338200021</v>
+        <v>19.19376233333333</v>
       </c>
       <c r="H18">
-        <v>17.5520338200021</v>
+        <v>57.581287</v>
       </c>
       <c r="I18">
-        <v>0.05315130026424828</v>
+        <v>0.05364813658121954</v>
       </c>
       <c r="J18">
-        <v>0.05315130026424828</v>
+        <v>0.06080191173156949</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.38612474234192</v>
+        <v>4.485465</v>
       </c>
       <c r="N18">
-        <v>4.38612474234192</v>
+        <v>8.970929999999999</v>
       </c>
       <c r="O18">
-        <v>0.3208348229435143</v>
+        <v>0.2898195711827911</v>
       </c>
       <c r="P18">
-        <v>0.3208348229435143</v>
+        <v>0.2580417701291554</v>
       </c>
       <c r="Q18">
-        <v>76.98540981633339</v>
+        <v>86.09294916448499</v>
       </c>
       <c r="R18">
-        <v>76.98540981633339</v>
+        <v>516.55769498691</v>
       </c>
       <c r="S18">
-        <v>0.01705278800949766</v>
+        <v>0.01554827993872485</v>
       </c>
       <c r="T18">
-        <v>0.01705278800949766</v>
+        <v>0.01568943293045085</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.5520338200021</v>
+        <v>19.19376233333333</v>
       </c>
       <c r="H19">
-        <v>17.5520338200021</v>
+        <v>57.581287</v>
       </c>
       <c r="I19">
-        <v>0.05315130026424828</v>
+        <v>0.05364813658121954</v>
       </c>
       <c r="J19">
-        <v>0.05315130026424828</v>
+        <v>0.06080191173156949</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.79198395723167</v>
+        <v>2.069856666666667</v>
       </c>
       <c r="N19">
-        <v>1.79198395723167</v>
+        <v>6.20957</v>
       </c>
       <c r="O19">
-        <v>0.1310794583851857</v>
+        <v>0.133739750849282</v>
       </c>
       <c r="P19">
-        <v>0.1310794583851857</v>
+        <v>0.1786134140541615</v>
       </c>
       <c r="Q19">
-        <v>31.45296302223147</v>
+        <v>39.72833692406556</v>
       </c>
       <c r="R19">
-        <v>31.45296302223147</v>
+        <v>357.55503231659</v>
       </c>
       <c r="S19">
-        <v>0.006967043651106041</v>
+        <v>0.007174888419900553</v>
       </c>
       <c r="T19">
-        <v>0.006967043651106041</v>
+        <v>0.0108600370353954</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.5520338200021</v>
+        <v>19.19376233333333</v>
       </c>
       <c r="H20">
-        <v>17.5520338200021</v>
+        <v>57.581287</v>
       </c>
       <c r="I20">
-        <v>0.05315130026424828</v>
+        <v>0.05364813658121954</v>
       </c>
       <c r="J20">
-        <v>0.05315130026424828</v>
+        <v>0.06080191173156949</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.67541086057667</v>
+        <v>1.742061666666666</v>
       </c>
       <c r="N20">
-        <v>1.67541086057667</v>
+        <v>5.226184999999999</v>
       </c>
       <c r="O20">
-        <v>0.1225524075094474</v>
+        <v>0.1125599163536694</v>
       </c>
       <c r="P20">
-        <v>0.1225524075094474</v>
+        <v>0.1503271152960105</v>
       </c>
       <c r="Q20">
-        <v>29.40686808724054</v>
+        <v>33.43671760001055</v>
       </c>
       <c r="R20">
-        <v>29.40686808724054</v>
+        <v>300.9304584000949</v>
       </c>
       <c r="S20">
-        <v>0.006513819809641152</v>
+        <v>0.006038629766112301</v>
       </c>
       <c r="T20">
-        <v>0.006513819809641152</v>
+        <v>0.009140175995089503</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.5520338200021</v>
+        <v>19.19376233333333</v>
       </c>
       <c r="H21">
-        <v>17.5520338200021</v>
+        <v>57.581287</v>
       </c>
       <c r="I21">
-        <v>0.05315130026424828</v>
+        <v>0.05364813658121954</v>
       </c>
       <c r="J21">
-        <v>0.05315130026424828</v>
+        <v>0.06080191173156949</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.81745512427212</v>
+        <v>7.1793665</v>
       </c>
       <c r="N21">
-        <v>5.81745512427212</v>
+        <v>14.358733</v>
       </c>
       <c r="O21">
-        <v>0.4255333111618528</v>
+        <v>0.4638807616142575</v>
       </c>
       <c r="P21">
-        <v>0.4255333111618528</v>
+        <v>0.4130177005206726</v>
       </c>
       <c r="Q21">
-        <v>102.1081690875688</v>
+        <v>137.7990543048952</v>
       </c>
       <c r="R21">
-        <v>102.1081690875688</v>
+        <v>826.7943258293709</v>
       </c>
       <c r="S21">
-        <v>0.02261764879400343</v>
+        <v>0.02488633845648183</v>
       </c>
       <c r="T21">
-        <v>0.02261764879400343</v>
+        <v>0.02511226577063374</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>98.3069217210292</v>
+        <v>99.89975749999999</v>
       </c>
       <c r="H22">
-        <v>98.3069217210292</v>
+        <v>199.799515</v>
       </c>
       <c r="I22">
-        <v>0.2976943166833386</v>
+        <v>0.279227998227482</v>
       </c>
       <c r="J22">
-        <v>0.2976943166833386</v>
+        <v>0.2109746604837157</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.38612474234192</v>
+        <v>4.485465</v>
       </c>
       <c r="N22">
-        <v>4.38612474234192</v>
+        <v>8.970929999999999</v>
       </c>
       <c r="O22">
-        <v>0.3208348229435143</v>
+        <v>0.2898195711827911</v>
       </c>
       <c r="P22">
-        <v>0.3208348229435143</v>
+        <v>0.2580417701291554</v>
       </c>
       <c r="Q22">
-        <v>431.1864217040765</v>
+        <v>448.0968657747374</v>
       </c>
       <c r="R22">
-        <v>431.1864217040765</v>
+        <v>1792.38746309895</v>
       </c>
       <c r="S22">
-        <v>0.0955107033843894</v>
+        <v>0.08092573870851798</v>
       </c>
       <c r="T22">
-        <v>0.0955107033843894</v>
+        <v>0.05444027484361558</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>98.3069217210292</v>
+        <v>99.89975749999999</v>
       </c>
       <c r="H23">
-        <v>98.3069217210292</v>
+        <v>199.799515</v>
       </c>
       <c r="I23">
-        <v>0.2976943166833386</v>
+        <v>0.279227998227482</v>
       </c>
       <c r="J23">
-        <v>0.2976943166833386</v>
+        <v>0.2109746604837157</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.79198395723167</v>
+        <v>2.069856666666667</v>
       </c>
       <c r="N23">
-        <v>1.79198395723167</v>
+        <v>6.20957</v>
       </c>
       <c r="O23">
-        <v>0.1310794583851857</v>
+        <v>0.133739750849282</v>
       </c>
       <c r="P23">
-        <v>0.1310794583851857</v>
+        <v>0.1786134140541615</v>
       </c>
       <c r="Q23">
-        <v>176.1644266089139</v>
+        <v>206.7781790597583</v>
       </c>
       <c r="R23">
-        <v>176.1644266089139</v>
+        <v>1240.66907435855</v>
       </c>
       <c r="S23">
-        <v>0.03902160979519996</v>
+        <v>0.0373438829130872</v>
       </c>
       <c r="T23">
-        <v>0.03902160979519996</v>
+        <v>0.03768290438791407</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>98.3069217210292</v>
+        <v>99.89975749999999</v>
       </c>
       <c r="H24">
-        <v>98.3069217210292</v>
+        <v>199.799515</v>
       </c>
       <c r="I24">
-        <v>0.2976943166833386</v>
+        <v>0.279227998227482</v>
       </c>
       <c r="J24">
-        <v>0.2976943166833386</v>
+        <v>0.2109746604837157</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.67541086057667</v>
+        <v>1.742061666666666</v>
       </c>
       <c r="N24">
-        <v>1.67541086057667</v>
+        <v>5.226184999999999</v>
       </c>
       <c r="O24">
-        <v>0.1225524075094474</v>
+        <v>0.1125599163536694</v>
       </c>
       <c r="P24">
-        <v>0.1225524075094474</v>
+        <v>0.1503271152960105</v>
       </c>
       <c r="Q24">
-        <v>164.7044843212729</v>
+        <v>174.0315380500458</v>
       </c>
       <c r="R24">
-        <v>164.7044843212729</v>
+        <v>1044.189228300275</v>
       </c>
       <c r="S24">
-        <v>0.03648315521142298</v>
+        <v>0.03142988012408792</v>
       </c>
       <c r="T24">
-        <v>0.03648315521142298</v>
+        <v>0.03171521211107221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>98.3069217210292</v>
+        <v>99.89975749999999</v>
       </c>
       <c r="H25">
-        <v>98.3069217210292</v>
+        <v>199.799515</v>
       </c>
       <c r="I25">
-        <v>0.2976943166833386</v>
+        <v>0.279227998227482</v>
       </c>
       <c r="J25">
-        <v>0.2976943166833386</v>
+        <v>0.2109746604837157</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.81745512427212</v>
+        <v>7.1793665</v>
       </c>
       <c r="N25">
-        <v>5.81745512427212</v>
+        <v>14.358733</v>
       </c>
       <c r="O25">
-        <v>0.4255333111618528</v>
+        <v>0.4638807616142575</v>
       </c>
       <c r="P25">
-        <v>0.4255333111618528</v>
+        <v>0.4130177005206726</v>
       </c>
       <c r="Q25">
-        <v>571.8961055174195</v>
+        <v>717.2169723536236</v>
       </c>
       <c r="R25">
-        <v>571.8961055174195</v>
+        <v>2868.867889414495</v>
       </c>
       <c r="S25">
-        <v>0.1266788482923263</v>
+        <v>0.1295284964817889</v>
       </c>
       <c r="T25">
-        <v>0.1266788482923263</v>
+        <v>0.08713626914111389</v>
       </c>
     </row>
   </sheetData>
